--- a/data/centrality_string_interactions_short.tsv default node.xlsx
+++ b/data/centrality_string_interactions_short.tsv default node.xlsx
@@ -1,43 +1,587 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>BetweennessCentrality</t>
+  </si>
+  <si>
+    <t>ClosenessCentrality</t>
+  </si>
+  <si>
+    <t>ClusteringCoefficient</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Radiality</t>
+  </si>
+  <si>
+    <t>Stress</t>
+  </si>
+  <si>
+    <t>TopologicalCoefficient</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>UBXN4</t>
+  </si>
+  <si>
+    <t>TMEM59</t>
+  </si>
+  <si>
+    <t>RNF103</t>
+  </si>
+  <si>
+    <t>SH3PXD2A</t>
+  </si>
+  <si>
+    <t>TRIM11</t>
+  </si>
+  <si>
+    <t>PPP4C</t>
+  </si>
+  <si>
+    <t>PPP2R2A</t>
+  </si>
+  <si>
+    <t>PLCD1</t>
+  </si>
+  <si>
+    <t>SERPINI1</t>
+  </si>
+  <si>
+    <t>PAX4</t>
+  </si>
+  <si>
+    <t>SLC22A4</t>
+  </si>
+  <si>
+    <t>SNCG</t>
+  </si>
+  <si>
+    <t>PLD1</t>
+  </si>
+  <si>
+    <t>QPCT</t>
+  </si>
+  <si>
+    <t>KCNIP3</t>
+  </si>
+  <si>
+    <t>NFKBIL1</t>
+  </si>
+  <si>
+    <t>SORBS1</t>
+  </si>
+  <si>
+    <t>PTPN22</t>
+  </si>
+  <si>
+    <t>LYPLA1</t>
+  </si>
+  <si>
+    <t>GTF2H1</t>
+  </si>
+  <si>
+    <t>TBP</t>
+  </si>
+  <si>
+    <t>GSAP</t>
+  </si>
+  <si>
+    <t>GPR3</t>
+  </si>
+  <si>
+    <t>GNE</t>
+  </si>
+  <si>
+    <t>GLO1</t>
+  </si>
+  <si>
+    <t>SNCB</t>
+  </si>
+  <si>
+    <t>SNCAIP</t>
+  </si>
+  <si>
+    <t>KMO</t>
+  </si>
+  <si>
+    <t>RYK</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>EHMT1</t>
+  </si>
+  <si>
+    <t>ECE2</t>
+  </si>
+  <si>
+    <t>PRKCE</t>
+  </si>
+  <si>
+    <t>ECE1</t>
+  </si>
+  <si>
+    <t>LRRTM3</t>
+  </si>
+  <si>
+    <t>CTNND2</t>
+  </si>
+  <si>
+    <t>FLNB</t>
+  </si>
+  <si>
+    <t>SCT</t>
+  </si>
+  <si>
+    <t>HFE</t>
+  </si>
+  <si>
+    <t>ZFAND2A</t>
+  </si>
+  <si>
+    <t>PTGDS</t>
+  </si>
+  <si>
+    <t>VSNL1</t>
+  </si>
+  <si>
+    <t>CHI3L1</t>
+  </si>
+  <si>
+    <t>CRH</t>
+  </si>
+  <si>
+    <t>RELN</t>
+  </si>
+  <si>
+    <t>COL25A1</t>
+  </si>
+  <si>
+    <t>PAFAH1B1</t>
+  </si>
+  <si>
+    <t>MAP1B</t>
+  </si>
+  <si>
+    <t>TTBK1</t>
+  </si>
+  <si>
+    <t>NCKAP1</t>
+  </si>
+  <si>
+    <t>COQ2</t>
+  </si>
+  <si>
+    <t>CD244</t>
+  </si>
+  <si>
+    <t>HLA-DQB1</t>
+  </si>
+  <si>
+    <t>CCR2</t>
+  </si>
+  <si>
+    <t>PRKCD</t>
+  </si>
+  <si>
+    <t>CASP7</t>
+  </si>
+  <si>
+    <t>FAS</t>
+  </si>
+  <si>
+    <t>HSPA1A</t>
+  </si>
+  <si>
+    <t>SOD2</t>
+  </si>
+  <si>
+    <t>HDAC2</t>
+  </si>
+  <si>
+    <t>MAPK10</t>
+  </si>
+  <si>
+    <t>GLUL</t>
+  </si>
+  <si>
+    <t>SHH</t>
+  </si>
+  <si>
+    <t>TNFRSF21</t>
+  </si>
+  <si>
+    <t>CASP6</t>
+  </si>
+  <si>
+    <t>CASP8</t>
+  </si>
+  <si>
+    <t>IL1A</t>
+  </si>
+  <si>
+    <t>CAPN2</t>
+  </si>
+  <si>
+    <t>CTNNA3</t>
+  </si>
+  <si>
+    <t>PLAU</t>
+  </si>
+  <si>
+    <t>CALHM1</t>
+  </si>
+  <si>
+    <t>PAXIP1</t>
+  </si>
+  <si>
+    <t>CACUL1</t>
+  </si>
+  <si>
+    <t>NEFL</t>
+  </si>
+  <si>
+    <t>SQSTM1</t>
+  </si>
+  <si>
+    <t>PARK2</t>
+  </si>
+  <si>
+    <t>VCP</t>
+  </si>
+  <si>
+    <t>HTT</t>
+  </si>
+  <si>
+    <t>C9orf72</t>
+  </si>
+  <si>
+    <t>HLA-A</t>
+  </si>
+  <si>
+    <t>CR1</t>
+  </si>
+  <si>
+    <t>HLA-DQA1</t>
+  </si>
+  <si>
+    <t>CSF1R</t>
+  </si>
+  <si>
+    <t>ZFAND2B</t>
+  </si>
+  <si>
+    <t>TP73</t>
+  </si>
+  <si>
+    <t>HLA-DRB1</t>
+  </si>
+  <si>
+    <t>TREML2</t>
+  </si>
+  <si>
+    <t>DBN1</t>
+  </si>
+  <si>
+    <t>SORCS1</t>
+  </si>
+  <si>
+    <t>RABGAP1L</t>
+  </si>
+  <si>
+    <t>CTSH</t>
+  </si>
+  <si>
+    <t>BIN1</t>
+  </si>
+  <si>
+    <t>ASAH2</t>
+  </si>
+  <si>
+    <t>C4B</t>
+  </si>
+  <si>
+    <t>FGA</t>
+  </si>
+  <si>
+    <t>C1QA</t>
+  </si>
+  <si>
+    <t>APCS</t>
+  </si>
+  <si>
+    <t>SYN2</t>
+  </si>
+  <si>
+    <t>APBB3</t>
+  </si>
+  <si>
+    <t>CAV2</t>
+  </si>
+  <si>
+    <t>C16orf70</t>
+  </si>
+  <si>
+    <t>APBA1</t>
+  </si>
+  <si>
+    <t>ALOX5</t>
+  </si>
+  <si>
+    <t>NRG1</t>
+  </si>
+  <si>
+    <t>TGFBR2</t>
+  </si>
+  <si>
+    <t>PDCD1</t>
+  </si>
+  <si>
+    <t>ALK</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>PDCD6</t>
+  </si>
+  <si>
+    <t>ALG2</t>
+  </si>
+  <si>
+    <t>VEGFA</t>
+  </si>
+  <si>
+    <t>NLRP3</t>
+  </si>
+  <si>
+    <t>PDE4D</t>
+  </si>
+  <si>
+    <t>PRKAR1B</t>
+  </si>
+  <si>
+    <t>GBA</t>
+  </si>
+  <si>
+    <t>ADRB2</t>
+  </si>
+  <si>
+    <t>MTHFR</t>
+  </si>
+  <si>
+    <t>ADH1C</t>
+  </si>
+  <si>
+    <t>NOTCH1</t>
+  </si>
+  <si>
+    <t>NCSTN</t>
+  </si>
+  <si>
+    <t>EPHB2</t>
+  </si>
+  <si>
+    <t>CTSB</t>
+  </si>
+  <si>
+    <t>AGER</t>
+  </si>
+  <si>
+    <t>TREM2</t>
+  </si>
+  <si>
+    <t>FHL2</t>
+  </si>
+  <si>
+    <t>PPIF</t>
+  </si>
+  <si>
+    <t>ADAM10</t>
+  </si>
+  <si>
+    <t>CHAT</t>
+  </si>
+  <si>
+    <t>NPY</t>
+  </si>
+  <si>
+    <t>CASP3</t>
+  </si>
+  <si>
+    <t>HTR1A</t>
+  </si>
+  <si>
+    <t>PSEN2</t>
+  </si>
+  <si>
+    <t>GSK3B</t>
+  </si>
+  <si>
+    <t>NTRK1</t>
+  </si>
+  <si>
+    <t>CD2AP</t>
+  </si>
+  <si>
+    <t>CDK5</t>
+  </si>
+  <si>
+    <t>MME</t>
+  </si>
+  <si>
+    <t>CUTA</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>UCHL1</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>ACHE</t>
+  </si>
+  <si>
+    <t>HSPA9</t>
+  </si>
+  <si>
+    <t>SIGMAR1</t>
+  </si>
+  <si>
+    <t>CRAT</t>
+  </si>
+  <si>
+    <t>OGDH</t>
+  </si>
+  <si>
+    <t>ACOT8</t>
+  </si>
+  <si>
+    <t>ACAT1</t>
+  </si>
+  <si>
+    <t>UBQLN1</t>
+  </si>
+  <si>
+    <t>HSD11B1</t>
+  </si>
+  <si>
+    <t>APBB2</t>
+  </si>
+  <si>
+    <t>BCHE</t>
+  </si>
+  <si>
+    <t>ABCA2</t>
+  </si>
+  <si>
+    <t>TNF</t>
+  </si>
+  <si>
+    <t>VLDLR</t>
+  </si>
+  <si>
+    <t>IL10</t>
+  </si>
+  <si>
+    <t>RHOA</t>
+  </si>
+  <si>
+    <t>DHCR24</t>
+  </si>
+  <si>
+    <t>SOAT1</t>
+  </si>
+  <si>
+    <t>CFH</t>
+  </si>
+  <si>
+    <t>CAV1</t>
+  </si>
+  <si>
+    <t>SNCA</t>
+  </si>
+  <si>
+    <t>CLU</t>
+  </si>
+  <si>
+    <t>NOS3</t>
+  </si>
+  <si>
+    <t>IDE</t>
+  </si>
+  <si>
+    <t>IL1B</t>
+  </si>
+  <si>
+    <t>SIRT1</t>
+  </si>
+  <si>
+    <t>ABCA1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +590,71 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,10 +663,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -182,69 +704,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,54 +792,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -325,7 +848,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -334,7 +857,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,7 +866,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,10 +874,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -383,7 +906,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -396,13 +919,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -420,5779 +942,5435 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>BetweennessCentrality</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ClosenessCentrality</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ClusteringCoefficient</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Degree</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Radiality</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Stress</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>TopologicalCoefficient</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Overall</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>UBXN4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="6">
         <v>-0.8278469034105211</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="6">
         <v>2.421897261669832</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="6">
         <v>-0.7952476820711044</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="6">
         <v>-1.070808421102521</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="6">
         <v>2.898980962922312</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="6">
         <v>-2.496634847637875</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TMEM59</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="6">
         <v>-1.343981469218351</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="6">
         <v>-0.90161839113794</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="6">
         <v>-2.251822059018793</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="6">
         <v>-1.744713849878016</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="6">
         <v>-1.797394783983177</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>RNF103</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="6">
         <v>-0.8644461081212861</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="6">
         <v>-0.90161839113794</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="6">
         <v>-1.142385005218675</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="6">
         <v>-1.744713849878016</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="6">
         <v>-1.16827652555115</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SH3PXD2A</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="6">
         <v>-0.6180785735947927</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="6">
         <v>-0.90161839113794</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="6">
         <v>-0.6890666391498006</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="6">
         <v>-1.744713849878016</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="6">
         <v>-0.8925231450772101</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TRIM11</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="6">
         <v>-0.5614494985297676</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="6">
         <v>-0.90161839113794</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="6">
         <v>-0.5936311936616305</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="6">
         <v>-1.744713849878016</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="6">
         <v>-0.8327043960233828</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PPP4C</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="6">
         <v>-1.660846833096593</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="6">
         <v>-0.90161839113794</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="6">
         <v>-3.218105944586628</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="6">
         <v>-1.744713849878016</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="6">
         <v>-2.307970952670761</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>PPP2R2A</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6">
         <v>0.07651422950023994</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="6">
         <v>-0.9236925765489462</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="6">
         <v>-0.7952476820711044</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="6">
         <v>-1.261679312078901</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="6">
         <v>-0.06988371553911443</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="6">
         <v>1.457834296880831</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="6">
         <v>-1.492502632663082</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PLCD1</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="6">
         <v>-0.5324513101916417</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="6">
         <v>2.421897261669832</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="6">
         <v>-0.7952476820711044</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="6">
         <v>-0.5459134709175321</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="6">
         <v>1.640837048124194</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="6">
         <v>-1.861935826670823</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SERPINI1</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6">
         <v>-0.5202054902689489</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="6">
         <v>-0.3722149974261877</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="6">
         <v>-0.7952476820711044</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="6">
         <v>-0.2953954265110522</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="6">
         <v>-0.5424431810118314</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="6">
         <v>1.848388948924593</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="6">
         <v>-1.47612597583742</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>PAX4</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="6">
         <v>-1.008678113865197</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="6">
         <v>-0.90161839113794</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="6">
         <v>-1.440620772369227</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="6">
         <v>-1.744713849878016</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="6">
         <v>-1.343075341758055</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SLC22A4</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6">
         <v>-0.519081372476505</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="6">
         <v>-1.030593365849063</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="6">
         <v>-0.7952476820711044</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="6">
         <v>-1.488338495113338</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="6">
         <v>-0.5454077949733918</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="6">
         <v>1.778089111556716</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="6">
         <v>-2.188967657276228</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>SNCG</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="6">
         <v>-0.8584021002615414</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="6">
         <v>2.421897261669832</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="6">
         <v>-0.7952476820711044</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="6">
         <v>-1.130455574532647</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="6">
         <v>1.813672979854037</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="6">
         <v>-2.263389647662316</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PLD1</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6">
         <v>-0.381260435061643</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="6">
         <v>0.03346856652108018</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="6">
         <v>-0.2986134931990934</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="6">
         <v>-0.3697648458037619</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="6">
         <v>0.2533583850459926</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="6">
         <v>-0.4321595416417871</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="6">
         <v>0.04930617677856075</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="6">
         <v>-0.4172881889914172</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>QPCT</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6">
         <v>-0.4438645135531628</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="6">
         <v>-0.6661885944894249</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="6">
         <v>-0.05129433366555453</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="6">
         <v>-0.5825062639374331</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="6">
         <v>-0.7725726539519695</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="6">
         <v>-0.467141986388199</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="6">
         <v>0.5527663423620266</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="6">
         <v>-1.380247967021047</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>KCNIP3</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="6">
         <v>-0.5614494985297676</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="6">
         <v>-0.90161839113794</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="6">
         <v>-0.5936311936616305</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="6">
         <v>-1.744713849878016</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="6">
         <v>-0.8327043960233828</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>NFKBIL1</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="6">
         <v>-0.4021548360220124</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="6">
         <v>-0.4425868213829742</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="6">
         <v>-0.6888769730042688</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="6">
         <v>-0.4027603026852503</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="6">
         <v>-0.4203010857955458</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="6">
         <v>0.817324667529062</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="6">
         <v>-1.131745407032684</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SORBS1</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="6">
         <v>-0.5192680345097808</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="6">
         <v>-0.7326959291862409</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="6">
         <v>-0.7952476820711044</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="6">
         <v>-0.8918669608121821</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="6">
         <v>-0.5454077949733918</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="6">
         <v>1.603404667188051</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="6">
         <v>-1.792685733828248</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PTPN22</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="6">
         <v>0.1664137823266855</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="6">
         <v>0.1747454932635868</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="6">
         <v>0.6082234250905486</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="6">
         <v>0.05571799046358055</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="6">
         <v>0.4203704146503169</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="6">
         <v>0.07301067740809361</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="6">
         <v>-0.2074907394337692</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="6">
         <v>0.3768648293651981</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>LYPLA1</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="6">
         <v>-0.4783259204150512</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="6">
         <v>-0.7585961440568492</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="6">
         <v>-0.7952476820711044</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="6">
         <v>-0.9395846835562938</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="6">
         <v>-0.5145758097731643</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="6">
         <v>1.457834296880831</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" s="6">
         <v>-1.753137690297289</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GTF2H1</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="6">
         <v>-0.5140059069489028</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="6">
         <v>-1.003151325273819</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="6">
         <v>-0.7952476820711044</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="6">
         <v>-1.428691341683212</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="6">
         <v>-0.5454077949733918</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="6">
         <v>1.457834296880831</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21" s="6">
         <v>-2.072932969170669</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>TBP</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="6">
         <v>0.1512039966305907</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="6">
         <v>0.2168738417374259</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="6">
         <v>0.4345111582753252</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="6">
         <v>-0.1570234276700907</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="6">
         <v>0.4680881373944153</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="6">
         <v>-0.0420163443004473</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="6">
         <v>-0.1048548590677626</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22" s="6">
         <v>0.2399001316012796</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>GSAP</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="6">
         <v>-0.2403103225699868</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="6">
         <v>2.421897261669832</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="6">
         <v>-0.6888769730042688</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="6">
         <v>-0.1045245355346854</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="6">
         <v>1.185722362842497</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23" s="6">
         <v>-1.411641276936271</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>GPR3</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="6">
         <v>-0.6729551047506477</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="6">
         <v>-0.90161839113794</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="6">
         <v>-0.7845020846379841</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="6">
         <v>-1.744713849878016</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24" s="6">
         <v>-0.9516922081698956</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>GNE</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="6">
         <v>-0.8644461081212861</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="6">
         <v>-0.90161839113794</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="6">
         <v>-1.142385005218675</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="6">
         <v>-1.744713849878016</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25" s="6">
         <v>-1.16827652555115</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>GLO1</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="6">
         <v>-1.068221440010041</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="6">
         <v>-0.90161839113794</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="6">
         <v>-1.571844509915494</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="6">
         <v>-1.744713849878016</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26" s="6">
         <v>-1.418534097796955</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>SNCB</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+      <c r="B27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="6">
         <v>-0.406728377390376</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="6">
         <v>-0.1796720255748357</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="6">
         <v>0.5670035651682923</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="6">
         <v>-0.1570234276700907</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="6">
         <v>-0.02101852073250318</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27" s="6">
         <v>-0.4173364718339854</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27" s="6">
         <v>-0.1434397764985922</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27" s="6">
         <v>-0.5284405004507164</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>SNCAIP</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="6">
         <v>-0.4612836880873042</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="6">
         <v>-0.03377537115041012</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="6">
         <v>0.6994959720612594</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="6">
         <v>-0.1570234276700907</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="6">
         <v>0.169852370243837</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28" s="6">
         <v>-0.4778145966498162</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28" s="6">
         <v>-0.03426199876817743</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28" s="6">
         <v>-0.4856649305581237</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>KMO</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+      <c r="B29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="6">
         <v>-0.4906460314643934</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="6">
         <v>-0.5970525113856202</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="6">
         <v>-0.6888769730042688</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="6">
         <v>-0.6532783470917568</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29" s="6">
         <v>-0.5175404237347246</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29" s="6">
         <v>0.6749891943397793</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29" s="6">
         <v>-1.340036128615422</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>RYK</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+      <c r="B30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="6">
         <v>0.07780558008413264</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="6">
         <v>-0.3722149974261877</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="6">
         <v>-0.05129433366555453</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="6">
         <v>-0.5825062639374331</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="6">
         <v>-0.2953954265110522</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30" s="6">
         <v>-0.01711358702334051</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30" s="6">
         <v>0.584412075037509</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30" s="6">
         <v>-0.6444524932375315</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>REST</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+      <c r="B31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="6">
         <v>-0.4670500459724063</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="6">
         <v>-0.5686268389700315</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" s="6">
         <v>1.185301464002139</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" s="6">
         <v>-0.5825062639374331</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="6">
         <v>-0.6055606243476451</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31" s="6">
         <v>-0.4831509017806248</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31" s="6">
         <v>0.684805433870075</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31" s="6">
         <v>-1.416733399997825</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>EHMT1</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+      <c r="B32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="6">
         <v>-0.9695797528037141</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" s="6">
         <v>2.421897261669832</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" s="6">
         <v>-0.7952476820711044</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="6">
         <v>-1.357114757567085</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32" s="6">
         <v>2.73885355558437</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32" s="6">
         <v>-2.62598929300126</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ECE2</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+      <c r="B33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="6">
         <v>-0.7063987761566948</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" s="6">
         <v>2.421897261669832</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" s="6">
         <v>-0.7952476820711044</v>
       </c>
-      <c r="G33" t="n">
-        <v>-0.8441492380680971</v>
-      </c>
-      <c r="H33" t="n">
+      <c r="G33" s="6">
+        <v>-0.844149238068097</v>
+      </c>
+      <c r="H33" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33" s="6">
         <v>1.991592321340639</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33" s="6">
         <v>-2.134635019622043</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>PRKCE</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="6">
         <v>-0.2920409582603755</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="6">
         <v>0.02372855963926382</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" s="6">
         <v>-0.3604432830824778</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34" s="6">
         <v>-0.1570234276700907</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="6">
         <v>0.241428954359978</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34" s="6">
         <v>-0.3171325199332462</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34" s="6">
         <v>-0.3013118682402258</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34" s="6">
         <v>-0.142113294657215</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ECE1</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
+      <c r="B35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="6">
         <v>-0.4751824318431701</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="6">
         <v>-0.03377537115041012</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35" s="6">
         <v>-0.1749539134323239</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" s="6">
         <v>-0.4761355548705975</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="6">
         <v>0.169852370243837</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35" s="6">
         <v>-0.4730712143113197</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35" s="6">
         <v>0.2260850096658902</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35" s="6">
         <v>-0.6394927095504951</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>LRRTM3</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
+      <c r="B36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="6">
         <v>-1.767242692494004</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" s="6">
         <v>-0.90161839113794</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="6">
         <v>-3.599847726539376</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36" s="6">
         <v>-1.744713849878016</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36" s="6">
         <v>-2.502716072249621</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>CTNND2</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+      <c r="B37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="6">
         <v>0.2598856306254525</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="6">
         <v>-0.2908360402992394</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37" s="6">
         <v>-0.9169113920329399</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37" s="6">
         <v>-0.4761355548705975</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37" s="6">
         <v>-0.1761011196508129</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37" s="6">
         <v>0.2159050703553017</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37" s="6">
         <v>-0.02760292863710202</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37" s="6">
         <v>-0.1125617087191508</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>FLNB</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+      <c r="B38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="6">
         <v>-0.479569874570908</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="6">
         <v>-0.3562139029024922</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38" s="6">
         <v>-0.6888769730042688</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38" s="6">
         <v>-0.2715365651389964</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38" s="6">
         <v>-0.5009385855499868</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38" s="6">
         <v>0.5986140623845548</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38" s="6">
         <v>-1.063928964779008</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>SCT</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="6">
         <v>-0.8884027563348667</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" s="6">
         <v>2.421897261669832</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39" s="6">
         <v>-0.6888769730042688</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" s="6">
         <v>-1.19010272796276</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39" s="6">
         <v>2.406737451476045</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39" s="6">
         <v>-2.395992961323722</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>HFE</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
+      <c r="B40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="6">
         <v>-0.5018671783033314</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="6">
         <v>-0.9120140834931152</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40" s="6">
         <v>-0.05129433366555453</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40" s="6">
         <v>-0.6888769730042688</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40" s="6">
         <v>-1.237820450706845</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40" s="6">
         <v>-0.5353281075040867</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40" s="6">
         <v>1.339221402556429</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40" s="6">
         <v>-1.962507662800724</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ZFAND2A</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
+      <c r="B41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="6">
         <v>-0.5069157397976826</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="6">
         <v>-0.7904267819585797</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" s="6">
         <v>0.5670035651682923</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41" s="6">
         <v>-0.5825062639374331</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" s="6">
         <v>-0.9992318369863801</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41" s="6">
         <v>-0.5216908832809092</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41" s="6">
         <v>0.5428205406640175</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41" s="6">
         <v>-1.61444467151004</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>PTGDS</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
+      <c r="B42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="6">
         <v>-0.5542434487277434</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" s="6">
         <v>2.421897261669832</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42" s="6">
         <v>-0.7952476820711044</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="6">
         <v>-0.5817017629756159</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42" s="6">
         <v>2.311847136016524</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42" s="6">
         <v>-2.050787984435594</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="4">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>VSNL1</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
+      <c r="B43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="6">
         <v>-0.8216679636028703</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" s="6">
         <v>2.421897261669832</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43" s="6">
         <v>-0.7952476820711044</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="6">
         <v>-1.058878990416506</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43" s="6">
         <v>1.813672979854037</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43" s="6">
         <v>-2.220652598721872</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="4">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>CHI3L1</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
+      <c r="B44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="6">
         <v>-0.06180598601453807</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="6">
         <v>0.1334195895225807</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44" s="6">
         <v>0.1695263444893906</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" s="6">
         <v>-0.1570234276700907</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" s="6">
         <v>0.3726526919062318</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44" s="6">
         <v>-0.1238396896395125</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44" s="6">
         <v>0.3056980733517339</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44" s="6">
         <v>-0.04509505218483136</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="4">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>CRH</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="6">
         <v>-0.2897217775741317</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="6">
         <v>-0.07124202900430202</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45" s="6">
         <v>0.257854615751369</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45" s="6">
         <v>-0.05065271860325506</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45" s="6">
         <v>0.1221346474997387</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45" s="6">
         <v>-0.1825390460784071</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45" s="6">
         <v>0.1361477601232116</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45" s="6">
         <v>-0.2664747144505823</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="4">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>RELN</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
+      <c r="B46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="6">
         <v>-0.3323270566815387</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="6">
         <v>-0.03377537115041012</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46" s="6">
         <v>-0.3604432830824778</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46" s="6">
         <v>-0.05065271860325506</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46" s="6">
         <v>0.169852370243837</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46" s="6">
         <v>-0.3550795786412184</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46" s="6">
         <v>-0.332837785177879</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46" s="6">
         <v>-0.1705431070181861</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="4">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>COL25A1</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
+      <c r="B47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="6">
         <v>-0.2949699291435122</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="6">
         <v>-0.2058878306667236</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47" s="6">
         <v>-0.1749539134323239</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47" s="6">
         <v>-0.4761355548705975</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47" s="6">
         <v>-0.0568068127906003</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47" s="6">
         <v>-0.3361060492872323</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47" s="6">
         <v>0.1310643503664515</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47" s="6">
         <v>-0.628322893329621</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="4">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>PAFAH1B1</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
+      <c r="B48" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="6">
         <v>-0.3667716719350855</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="6">
         <v>-0.1080351289641899</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48" s="6">
         <v>0.443343985401523</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48" s="6">
         <v>-0.3697648458037619</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48" s="6">
         <v>0.0744169247556536</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48" s="6">
         <v>-0.4434250746957163</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48" s="6">
         <v>-0.1886735073850169</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48" s="6">
         <v>-0.5364139430872306</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="4">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>MAP1B</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
+      <c r="B49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="6">
         <v>-0.2104892458005297</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="6">
         <v>0.2168738417374259</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49" s="6">
         <v>-0.1412285734959322</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49" s="6">
         <v>0.1620886995304162</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49" s="6">
         <v>0.4680881373944153</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49" s="6">
         <v>-0.2193002592017552</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49" s="6">
         <v>-0.3442900342642505</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49" s="6">
         <v>0.2469785290701852</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="4">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>TTBK1</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
+      <c r="B50" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="6">
         <v>-0.4793739421630255</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="6">
         <v>-0.6040888464707406</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50" s="6">
         <v>-0.6888769730042688</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50" s="6">
         <v>-0.6652077777777714</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50" s="6">
         <v>-0.5044961223038592</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50" s="6">
         <v>0.9438450881417565</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50" s="6">
         <v>-1.403044863538226</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="4">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>NCKAP1</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
+      <c r="B51" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="6">
         <v>-0.5110113251052009</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="6">
         <v>-0.7841083407271503</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51" s="6">
         <v>-0.6888769730042688</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51" s="6">
         <v>-0.9873024063003655</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51" s="6">
         <v>-0.5400714898425832</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51" s="6">
         <v>0.6749891943397793</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51" s="6">
         <v>-1.564756693987164</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="4">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>COQ2</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
+      <c r="B52" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="6">
         <v>-0.5129566182408226</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="6">
         <v>-0.2991307691198875</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52" s="6">
         <v>-0.05129433366555453</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52" s="6">
         <v>-0.6888769730042688</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52" s="6">
         <v>-0.1880305503368275</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52" s="6">
         <v>-0.538885644257959</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52" s="6">
         <v>0.9240762724210235</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52" s="6">
         <v>-1.211980190747123</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="4">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>CD244</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
+      <c r="B53" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="6">
         <v>-0.2403103225699868</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53" s="6">
         <v>2.421897261669832</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53" s="6">
         <v>-0.6888769730042688</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53" s="6">
         <v>-0.1045245355346854</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53" s="6">
         <v>1.251218287412518</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53" s="6">
         <v>-1.427865078742474</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="4">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>HLA-DQB1</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
+      <c r="B54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="6">
         <v>-0.4424221567885981</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="6">
         <v>0.06296231101332657</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54" s="6">
         <v>1.185301464002139</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54" s="6">
         <v>0.05571799046358055</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54" s="6">
         <v>0.289146677104063</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54" s="6">
         <v>-0.3900620233876304</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54" s="6">
         <v>-0.0395733501172242</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54" s="6">
         <v>-0.2870886206175243</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="4">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>CCR2</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
+      <c r="B55" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="6">
         <v>-0.4643308501015844</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="6">
         <v>0.206265250354183</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55" s="6">
         <v>0.9042569645322088</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55" s="6">
         <v>0.2684594085972518</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55" s="6">
         <v>0.4561587067083874</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55" s="6">
         <v>-0.4629915268420146</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55" s="6">
         <v>0.1034233098140684</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55" s="6">
         <v>-0.124995806660641</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="4">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>PRKCD</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
+      <c r="B56" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="6">
         <v>-0.3421788267322649</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="6">
         <v>0.6236303097607107</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56" s="6">
         <v>0.6689208012398056</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56" s="6">
         <v>0.481200826730923</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56" s="6">
         <v>0.8856182114052196</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56" s="6">
         <v>-0.2157427224478828</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56" s="6">
         <v>-0.1623276751360952</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56" s="6">
         <v>0.555407571249115</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="4">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>CASP7</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
+      <c r="B57" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="6">
         <v>-0.5096253803707008</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="6">
         <v>0.1334195895225807</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57" s="6">
         <v>1.361958006526095</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57" s="6">
         <v>-0.1570234276700907</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57" s="6">
         <v>0.3726526919062318</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57" s="6">
         <v>-0.5039031995115472</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57" s="6">
         <v>0.5583531815874513</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57" s="6">
         <v>-0.5698899470983443</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="4">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>FAS</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
+      <c r="B58" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="6">
         <v>-0.4228792641893636</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="6">
         <v>0.3824159667227925</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58" s="6">
         <v>0.8048104493351564</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58" s="6">
         <v>0.3748301176640874</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58" s="6">
         <v>0.6470295976847542</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58" s="6">
         <v>-0.3704955712413322</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58" s="6">
         <v>0.06006662747605009</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58" s="6">
         <v>0.1468145406011684</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="4">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>HSPA1A</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
+      <c r="B59" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="6">
         <v>0.08501056767790142</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="6">
         <v>0.794634049378663</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59" s="6">
         <v>0.3366572891321531</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59" s="6">
         <v>0.9066836629982654</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59" s="6">
         <v>1.040700810323529</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59" s="6">
         <v>0.4317289667568939</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59" s="6">
         <v>-0.3551024413705853</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59" s="6">
         <v>1.442054491153722</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="4">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>SOD2</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
+      <c r="B60" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="6">
         <v>0.406234627181366</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="6">
         <v>0.4759252801678264</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60" s="6">
         <v>0.3815141955181383</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60" s="6">
         <v>0.6939422448645942</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60" s="6">
         <v>0.7424650431729377</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60" s="6">
         <v>0.6279864110121879</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60" s="6">
         <v>-0.2040940974599341</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60" s="6">
         <v>1.296478733679747</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="4">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>HDAC2</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
+      <c r="B61" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="6">
         <v>0.2242670184632761</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="6">
         <v>0.3258626039583062</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61" s="6">
         <v>0.2784645457124971</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61" s="6">
         <v>0.05571799046358055</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61" s="6">
         <v>0.5873824442546413</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61" s="6">
         <v>0.1358604933931727</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61" s="6">
         <v>-0.2570785817061645</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61" s="6">
         <v>0.591979297880618</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="4">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>MAPK10</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
+      <c r="B62" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="6">
         <v>-0.4961675095256366</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" s="6">
         <v>-0.03377537115041012</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62" s="6">
         <v>0.6553318364302705</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62" s="6">
         <v>-0.2633941367369263</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62" s="6">
         <v>0.169852370243837</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62" s="6">
         <v>-0.5056819678884833</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62" s="6">
         <v>0.3990326646870901</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62" s="6">
         <v>-0.6678968916698337</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="4">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>GLUL</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
+      <c r="B63" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="6">
         <v>-0.4819391287135461</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="6">
         <v>-0.3801652267807282</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63" s="6">
         <v>1.185301464002139</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63" s="6">
         <v>-0.6888769730042688</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63" s="6">
         <v>-0.3073248571970935</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63" s="6">
         <v>-0.4855225929498731</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63" s="6">
         <v>1.149440771637386</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63" s="6">
         <v>-1.398064224117711</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="4">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>SHH</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
+      <c r="B64" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="6">
         <v>-0.2116106263808256</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="6">
         <v>0.5733614939150138</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64" s="6">
         <v>0.5107946652743061</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64" s="6">
         <v>0.2684594085972518</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64" s="6">
         <v>0.8379004886611078</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64" s="6">
         <v>-0.1137600021702074</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64" s="6">
         <v>-0.2027462236607933</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64" s="6">
         <v>0.5448622548601774</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="4">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>TNFRSF21</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
+      <c r="B65" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="6">
         <v>-0.4942081300938522</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" s="6">
         <v>0.1957079082046753</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65" s="6">
         <v>1.096973192740161</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65" s="6">
         <v>-0.1570234276700907</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65" s="6">
         <v>0.4442292760223728</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65" s="6">
         <v>-0.4837438245729369</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65" s="6">
         <v>0.1297187419014272</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65" s="6">
         <v>-0.376001865326091</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="4">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>CASP6</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
+      <c r="B66" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="6">
         <v>-0.3681796763904273</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" s="6">
         <v>0.1232108152017627</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66" s="6">
         <v>0.8319883789542265</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66" s="6">
         <v>-0.2633941367369263</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66" s="6">
         <v>0.3607232612202173</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66" s="6">
         <v>-0.3924337145568786</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66" s="6">
         <v>0.2208712560692127</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66" s="6">
         <v>-0.3914074966320914</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="4">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>CASP8</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
+      <c r="B67" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="6">
         <v>0.2079452163000194</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" s="6">
         <v>0.7407306966730042</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67" s="6">
         <v>0.217530839740466</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67" s="6">
         <v>1.544907917399279</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67" s="6">
         <v>0.9929830875794176</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67" s="6">
         <v>0.4103837462336595</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67" s="6">
         <v>-0.4581555928074413</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67" s="6">
         <v>1.780057151889292</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="4">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>IL1A</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
+      <c r="B68" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="6">
         <v>-0.4545058007133605</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" s="6">
         <v>0.206265250354183</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68" s="6">
         <v>1.477587743450867</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68" s="6">
         <v>0.1620886995304162</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68" s="6">
         <v>0.4561587067083874</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68" s="6">
         <v>-0.4327524644340991</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68" s="6">
         <v>0.3833863255656332</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68" s="6">
         <v>-0.2674970694477103</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="4">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>CAPN2</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
+      <c r="B69" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="6">
         <v>-0.5092327553594964</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" s="6">
         <v>-0.1796720255748357</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69" s="6">
         <v>1.185301464002139</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69" s="6">
         <v>-0.5825062639374331</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69" s="6">
         <v>-0.02101852073250318</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69" s="6">
         <v>-0.5323634935425263</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69" s="6">
         <v>1.043711691696498</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69" s="6">
         <v>-1.165176364606844</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="4">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>CTNNA3</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
+      <c r="B70" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="6">
         <v>0.08384284441246445</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" s="6">
         <v>-1.099762217186936</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70" s="6">
         <v>-0.6888769730042688</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70" s="6">
         <v>-1.643421094031648</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70" s="6">
         <v>-0.04320218988507143</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70" s="6">
         <v>0.3903182479612154</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70" s="6">
         <v>-1.383373976555522</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="4">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>PLAU</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
+      <c r="B71" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" s="6">
         <v>0.05516360611125345</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" s="6">
         <v>0.4054381964253999</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71" s="6">
         <v>-0.2161737733545806</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71" s="6">
         <v>0.05571799046358055</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71" s="6">
         <v>0.6708884590567834</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71" s="6">
         <v>0.04810792013098681</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71" s="6">
         <v>-0.09065052133223778</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71" s="6">
         <v>0.5343022484648267</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="4">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>CALHM1</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
+      <c r="B72" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="6">
         <v>-0.005045413545574274</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" s="6">
         <v>-0.3319574666181643</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72" s="6">
         <v>-0.6888769730042688</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72" s="6">
         <v>-0.2357482730809393</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72" s="6">
         <v>-0.1795744321168467</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72" s="6">
         <v>0.3903182479612154</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72" s="6">
         <v>-0.628659148657985</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="4">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>PAXIP1</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
+      <c r="B73" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73" s="6">
         <v>6.77561939080413</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73" s="6">
         <v>-0.90161839113794</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73" s="6">
         <v>3.414657516842047</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73" s="6">
         <v>-1.744713849878016</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73" s="6">
         <v>3.517904522707592</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="4">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>CACUL1</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
+      <c r="B74" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74" s="6">
         <v>6.77561939080413</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74" s="6">
         <v>-0.90161839113794</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74" s="6">
         <v>3.414657516842047</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74" s="6">
         <v>-1.744713849878016</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74" s="6">
         <v>3.517904522707592</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="4">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>NEFL</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
+      <c r="B75" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="6">
         <v>0.2004661696431637</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="6">
         <v>0.04325398136038801</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75" s="6">
         <v>-0.3885477330294709</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75" s="6">
         <v>0.2684594085972518</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75" s="6">
         <v>0.2652878157320338</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75" s="6">
         <v>0.02735562240006448</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75" s="6">
         <v>-0.622252121969891</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75" s="6">
         <v>0.5339601373194501</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="4">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>SQSTM1</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
+      <c r="B76" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="6">
         <v>-0.1164342497321458</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" s="6">
         <v>0.7142160745313023</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76" s="6">
         <v>0.4259882549079412</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76" s="6">
         <v>1.013054372065101</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76" s="6">
         <v>0.9691242262073884</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76" s="6">
         <v>0.1809226256088897</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76" s="6">
         <v>-0.3667014432393988</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76" s="6">
         <v>1.223530374526259</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="4">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>PARK2</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
+      <c r="B77" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="6">
         <v>-0.0417750933683157</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="6">
         <v>0.511990562652618</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77" s="6">
         <v>0.2639163598575829</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77" s="6">
         <v>0.9066836629982654</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77" s="6">
         <v>0.7782533352310081</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77" s="6">
         <v>0.07063898623884535</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77" s="6">
         <v>-0.5283265152247121</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77" s="6">
         <v>1.05553211352327</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="A78" s="4">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>VCP</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
+      <c r="B78" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="6">
         <v>1.981492710848786</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="6">
         <v>0.5486208365079276</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78" s="6">
         <v>-0.4149989800384056</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78" s="6">
         <v>0.9066836629982654</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78" s="6">
         <v>0.8140416272890786</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78" s="6">
         <v>1.673309293858361</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78" s="6">
         <v>-0.84399718360209</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78" s="6">
         <v>2.854070119944307</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="4">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>HTT</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
+      <c r="B79" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" s="6">
         <v>1.100545629726601</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="6">
         <v>0.7010659654367645</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79" s="6">
         <v>-0.2125894377091666</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79" s="6">
         <v>1.544907917399279</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79" s="6">
         <v>0.9571947955213471</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79" s="6">
         <v>1.123076942592764</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79" s="6">
         <v>-0.7199991519764037</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79" s="6">
         <v>2.574326797944468</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="A80" s="4">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>C9orf72</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
+      <c r="B80" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" s="6">
         <v>-0.2553702349510644</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="6">
         <v>0.206265250354183</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80" s="6">
         <v>0.6082234250905486</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80" s="6">
         <v>0.05571799046358055</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80" s="6">
         <v>0.4561587067083874</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80" s="6">
         <v>-0.2584331634943516</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80" s="6">
         <v>-0.2828448134751541</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80" s="6">
         <v>0.08055159451900686</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="A81" s="4">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>HLA-A</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
+      <c r="B81" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="6">
         <v>0.2743679961941626</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="6">
         <v>0.1436770930764336</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81" s="6">
         <v>0.4658275453591174</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81" s="6">
         <v>0.1620886995304162</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81" s="6">
         <v>0.3845821225922464</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81" s="6">
         <v>-0.0331225024157663</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81" s="6">
         <v>-0.2890101468058129</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81" s="6">
         <v>0.4302928043963897</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+      <c r="A82" s="4">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>CR1</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
+      <c r="B82" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="6">
         <v>-0.5181444283726807</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82" s="6">
         <v>0.02372855963926382</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82" s="6">
         <v>1.185301464002139</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82" s="6">
         <v>-0.5825062639374331</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82" s="6">
         <v>0.241428954359978</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82" s="6">
         <v>-0.538292721465647</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82" s="6">
         <v>0.7339706746682151</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82" s="6">
         <v>-0.9129920201912604</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+      <c r="A83" s="4">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>HLA-DQA1</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
+      <c r="B83" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" s="6">
         <v>-0.4380531811627056</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" s="6">
         <v>0.09287341981442536</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83" s="6">
         <v>1.267741183846652</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83" s="6">
         <v>0.05571799046358055</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83" s="6">
         <v>0.3249349691621201</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83" s="6">
         <v>-0.3764247991644528</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83" s="6">
         <v>-0.06758995197009333</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83" s="6">
         <v>-0.2522691614860216</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="A84" s="4">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>CSF1R</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
+      <c r="B84" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="6">
         <v>-0.1476380594187033</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" s="6">
         <v>0.1747454932635868</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84" s="6">
         <v>0.3835525402395684</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84" s="6">
         <v>0.481200826730923</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84" s="6">
         <v>0.4203704146503169</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84" s="6">
         <v>-0.06454741040830583</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84" s="6">
         <v>-0.02026484777709819</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84" s="6">
         <v>0.3419500175363831</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="A85" s="4">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ZFAND2B</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
+      <c r="B85" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="6">
         <v>-0.1257980623414765</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" s="6">
         <v>-0.4578717806361943</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85" s="6">
         <v>-0.5812639612374233</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85" s="6">
         <v>-0.2633941367369263</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85" s="6">
         <v>-0.4266191640573062</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85" s="6">
         <v>-0.2109993401093863</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85" s="6">
         <v>-0.3721932155527962</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85" s="6">
         <v>-0.4852748001884456</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+      <c r="A86" s="4">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>TP73</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
+      <c r="B86" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="6">
         <v>-0.3558562466608465</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="6">
         <v>-0.08050273572497443</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86" s="6">
         <v>0.03703393759642347</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86" s="6">
         <v>-0.1570234276700907</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86" s="6">
         <v>0.1102052168137241</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86" s="6">
         <v>-0.3639734205258994</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86" s="6">
         <v>0.1943289733548799</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86" s="6">
         <v>-0.4359913758070417</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="A87" s="4">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>HLA-DRB1</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
+      <c r="B87" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" s="6">
         <v>0.3280774851868213</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87" s="6">
         <v>0.4759252801678264</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87" s="6">
         <v>-0.09685312621120654</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87" s="6">
         <v>1.119425081131937</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87" s="6">
         <v>0.7424650431729377</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87" s="6">
         <v>0.4317289667568939</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87" s="6">
         <v>-0.5635589957508284</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87" s="6">
         <v>1.493725338223538</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+      <c r="A88" s="4">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>TREML2</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
+      <c r="B88" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88" s="6">
         <v>-0.6729551047506477</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88" s="6">
         <v>2.421897261669832</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88" s="6">
         <v>-0.7952476820711044</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88" s="6">
         <v>-0.7845020846379841</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88" s="6">
         <v>2.196883869209796</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88" s="6">
         <v>-2.148823163534928</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+      <c r="A89" s="4">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>DBN1</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
+      <c r="B89" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="6">
         <v>-0.4524575796247955</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89" s="6">
         <v>-0.4805652660580661</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89" s="6">
         <v>-0.6695922324994015</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89" s="6">
         <v>-0.5825062639374331</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89" s="6">
         <v>-0.4624074561153499</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89" s="6">
         <v>-0.4890801297037455</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89" s="6">
         <v>0.1310643503664515</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89" s="6">
         <v>-1.049673625901649</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+      <c r="A90" s="4">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>SORCS1</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
+      <c r="B90" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="6">
         <v>-0.9976051444417688</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90" s="6">
         <v>-0.90161839113794</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90" s="6">
         <v>-1.416761910997198</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90" s="6">
         <v>-1.744713849878016</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90" s="6">
         <v>-1.329264035823041</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+      <c r="A91" s="4">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>RABGAP1L</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
+      <c r="B91" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91" s="6">
         <v>-0.9976051444417688</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91" s="6">
         <v>-0.90161839113794</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91" s="6">
         <v>-1.416761910997198</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I91" s="6">
         <v>-1.744713849878016</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91" s="6">
         <v>-1.329264035823041</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+      <c r="A92" s="4">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>CTSH</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
+      <c r="B92" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" s="6">
         <v>-0.4945595755718579</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92" s="6">
         <v>-0.6319587920916511</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92" s="6">
         <v>0.1960248258679843</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92" s="6">
         <v>-0.4761355548705975</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92" s="6">
         <v>-0.7129255005218431</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92" s="6">
         <v>-0.5216908832809092</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92" s="6">
         <v>0.7419705934876769</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92" s="6">
         <v>-1.406298981748286</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+      <c r="A93" s="4">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>BIN1</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
+      <c r="B93" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" s="6">
         <v>1.256228294080287</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93" s="6">
         <v>0.2816228305248066</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93" s="6">
         <v>-0.6220308556660283</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93" s="6">
         <v>0.3748301176640874</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93" s="6">
         <v>0.5396647215105562</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93" s="6">
         <v>0.8894653624218093</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I93" s="6">
         <v>-0.8472965120499871</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93" s="6">
         <v>1.725501392924014</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
+      <c r="A94" s="4">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>ASAH2</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
+      <c r="B94" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" s="6">
         <v>-0.5174979666565109</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="6">
         <v>-0.5899883096268946</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94" s="6">
         <v>-0.7952476820711044</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94" s="6">
         <v>-0.6413489164057156</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94" s="6">
         <v>-0.5418502582195194</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I94" s="6">
         <v>1.572211016407933</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94" s="6">
         <v>-1.627706558576898</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+      <c r="A95" s="4">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>C4B</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
+      <c r="B95" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" s="6">
         <v>-0.2707186101517243</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="6">
         <v>0.1643396901633326</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95" s="6">
         <v>0.2612518569537527</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95" s="6">
         <v>0.481200826730923</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95" s="6">
         <v>0.4084409839642756</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95" s="6">
         <v>-0.2679199281713446</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I95" s="6">
         <v>-0.2255563956462555</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95" s="6">
         <v>0.2442345422148658</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
+      <c r="A96" s="4">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>FGA</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
+      <c r="B96" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="6">
         <v>-0.2903922954833168</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="6">
         <v>-0.04320619084993477</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96" s="6">
         <v>0.03703393759642347</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96" s="6">
         <v>-0.1570234276700907</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96" s="6">
         <v>0.1579229395578091</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96" s="6">
         <v>-0.235309174594181</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96" s="6">
         <v>-0.2578164960256942</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96" s="6">
         <v>-0.2021688868555901</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
+      <c r="A97" s="4">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>C1QA</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
+      <c r="B97" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" s="6">
         <v>-0.5131641275679555</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97" s="6">
         <v>0.02372855963926382</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97" s="6">
         <v>1.008644921478183</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97" s="6">
         <v>-0.2633941367369263</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97" s="6">
         <v>0.241428954359978</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97" s="6">
         <v>-0.5353281075040867</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I97" s="6">
         <v>0.08531366255561103</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J97" s="6">
         <v>-0.5867730015414035</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
+      <c r="A98" s="4">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>APCS</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
+      <c r="B98" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" s="6">
         <v>-0.4505898716638206</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98" s="6">
         <v>0.1957079082046753</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98" s="6">
         <v>0.7731028647795746</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98" s="6">
         <v>-0.05065271860325506</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98" s="6">
         <v>0.4442292760223728</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98" s="6">
         <v>-0.4262303137186664</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I98" s="6">
         <v>0.1446201097178122</v>
       </c>
-      <c r="J98" t="n">
+      <c r="J98" s="6">
         <v>-0.2603838337486125</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
+      <c r="A99" s="4">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>SYN2</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
+      <c r="B99" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" s="6">
         <v>-0.2817960668357551</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" s="6">
         <v>-0.1884491233148506</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99" s="6">
         <v>0.1960248258679843</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99" s="6">
         <v>-0.3697648458037619</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99" s="6">
         <v>-0.03294795141854444</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99" s="6">
         <v>-0.3378848176641685</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99" s="6">
         <v>-0.0404338419537173</v>
       </c>
-      <c r="J99" t="n">
+      <c r="J99" s="6">
         <v>-0.541964371194402</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+      <c r="A100" s="4">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>APBB3</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
+      <c r="B100" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" s="6">
         <v>-1.276289638890585</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100" s="6">
         <v>-0.90161839113794</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100" s="6">
         <v>-2.072880598728454</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I100" s="6">
         <v>-1.744713849878016</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J100" s="6">
         <v>-1.699502408341802</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+      <c r="A101" s="4">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>CAV2</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
+      <c r="B101" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" s="6">
         <v>-0.3809734253118592</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" s="6">
         <v>-0.3801652267807282</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101" s="6">
         <v>-0.05129433366555453</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101" s="6">
         <v>-0.6888769730042688</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101" s="6">
         <v>-0.3073248571970935</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101" s="6">
         <v>-0.431566618849475</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I101" s="6">
         <v>0.9925067883774086</v>
       </c>
-      <c r="J101" t="n">
+      <c r="J101" s="6">
         <v>-1.199066078879949</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+      <c r="A102" s="4">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>C16orf70</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
+      <c r="B102" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" s="6">
         <v>-0.5023361902123665</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" s="6">
         <v>-1.08932026767295</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102" s="6">
         <v>-0.7952476820711044</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102" s="6">
         <v>-1.619562232659566</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102" s="6">
         <v>-0.538292721465647</v>
       </c>
-      <c r="I102" t="n">
+      <c r="I102" s="6">
         <v>1.457834296880831</v>
       </c>
-      <c r="J102" t="n">
+      <c r="J102" s="6">
         <v>-2.174035488757772</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+      <c r="A103" s="4">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>APBA1</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
+      <c r="B103" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="6">
         <v>0.9272758138240423</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103" s="6">
         <v>-0.2488226090710101</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103" s="6">
         <v>-0.9345770462853356</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103" s="6">
         <v>-0.2633941367369263</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103" s="6">
         <v>-0.1164539662207266</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103" s="6">
         <v>0.6161279551659465</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I103" s="6">
         <v>-0.5246955082555982</v>
       </c>
-      <c r="J103" t="n">
+      <c r="J103" s="6">
         <v>0.6336952176691086</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+      <c r="A104" s="4">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>ALOX5</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
+      <c r="B104" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" s="6">
         <v>-0.490139531306043</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="6">
         <v>0.04325398136038801</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104" s="6">
         <v>0.6906631449350616</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104" s="6">
         <v>-0.3697648458037619</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104" s="6">
         <v>0.2652878157320338</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104" s="6">
         <v>-0.49323058924993</v>
       </c>
-      <c r="I104" t="n">
+      <c r="I104" s="6">
         <v>1.008353855230467</v>
       </c>
-      <c r="J104" t="n">
+      <c r="J104" s="6">
         <v>-0.7952796600228169</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+      <c r="A105" s="4">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>NRG1</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
+      <c r="B105" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" s="6">
         <v>-0.1437680261223167</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" s="6">
         <v>0.03346856652108018</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105" s="6">
         <v>-0.09545846929654363</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105" s="6">
         <v>-0.1570234276700907</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105" s="6">
         <v>0.2533583850459926</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105" s="6">
         <v>-0.2092205717324501</v>
       </c>
-      <c r="I105" t="n">
+      <c r="I105" s="6">
         <v>-0.2058270780588299</v>
       </c>
-      <c r="J105" t="n">
+      <c r="J105" s="6">
         <v>-0.06063604551628761</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+      <c r="A106" s="4">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>TGFBR2</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
+      <c r="B106" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="6">
         <v>0.7041885280277851</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" s="6">
         <v>0.4054381964253999</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106" s="6">
         <v>0.6082234250905486</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106" s="6">
         <v>0.05571799046358055</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106" s="6">
         <v>0.6708884590567834</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106" s="6">
         <v>0.4844990952726678</v>
       </c>
-      <c r="I106" t="n">
+      <c r="I106" s="6">
         <v>0.2108846993130247</v>
       </c>
-      <c r="J106" t="n">
+      <c r="J106" s="6">
         <v>0.8906061611695798</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+      <c r="A107" s="4">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>PDCD1</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
+      <c r="B107" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" s="6">
         <v>-0.4025178199778833</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" s="6">
         <v>0.0728858713667427</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107" s="6">
         <v>0.5058532235253844</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107" s="6">
         <v>0.481200826730923</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107" s="6">
         <v>0.3010761077900776</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107" s="6">
         <v>-0.4291949276802268</v>
       </c>
-      <c r="I107" t="n">
+      <c r="I107" s="6">
         <v>-0.001241692762195468</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J107" s="6">
         <v>-0.03998999601728333</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+      <c r="A108" s="4">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>ALK</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
+      <c r="B108" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" s="6">
         <v>-0.4492023243740367</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" s="6">
         <v>0.08285613082770399</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108" s="6">
         <v>0.1695263444893906</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108" s="6">
         <v>-0.1570234276700907</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108" s="6">
         <v>0.3130055384761055</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108" s="6">
         <v>-0.4339383100187233</v>
       </c>
-      <c r="I108" t="n">
+      <c r="I108" s="6">
         <v>0.05158719397710645</v>
       </c>
-      <c r="J108" t="n">
+      <c r="J108" s="6">
         <v>-0.3411831137451314</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+      <c r="A109" s="4">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>TF</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
+      <c r="B109" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" s="6">
         <v>-0.357922120380575</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" s="6">
         <v>-0.403817159110485</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109" s="6">
         <v>0.3020187513823577</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109" s="6">
         <v>-0.2633941367369263</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109" s="6">
         <v>-0.3431131492551373</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109" s="6">
         <v>-0.3444069683796012</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I109" s="6">
         <v>-0.07090819826189347</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J109" s="6">
         <v>-0.7354739359080245</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+      <c r="A110" s="4">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>PDCD6</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
+      <c r="B110" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C110" s="6">
         <v>-0.3554578058523395</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110" s="6">
         <v>-0.3156141108274438</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110" s="6">
         <v>-0.5825062639374331</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110" s="6">
         <v>-0.2118894117089101</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110" s="6">
         <v>-0.4131860122878009</v>
       </c>
-      <c r="I110" t="n">
+      <c r="I110" s="6">
         <v>0.06542205915959332</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110" s="6">
         <v>-0.7469494180189018</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
+      <c r="A111" s="4">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>ALG2</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
+      <c r="B111" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" s="6">
         <v>-0.497385743903037</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111" s="6">
         <v>-0.846247422690657</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111" s="6">
         <v>-0.05129433366555453</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111" s="6">
         <v>-0.6888769730042688</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111" s="6">
         <v>-1.106596713160618</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H111" s="6">
         <v>-0.5252484200347816</v>
       </c>
-      <c r="I111" t="n">
+      <c r="I111" s="6">
         <v>1.269449111777369</v>
       </c>
-      <c r="J111" t="n">
+      <c r="J111" s="6">
         <v>-1.860807938431742</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
+      <c r="A112" s="4">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>VEGFA</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
+      <c r="B112" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="6">
         <v>1.28925520934343</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="6">
         <v>1.098252934006455</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112" s="6">
         <v>-0.2217159393945478</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112" s="6">
         <v>2.714985717134471</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112" s="6">
         <v>1.291218854729969</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H112" s="6">
         <v>1.611052400665594</v>
       </c>
-      <c r="I112" t="n">
+      <c r="I112" s="6">
         <v>-0.7519239243827731</v>
       </c>
-      <c r="J112" t="n">
+      <c r="J112" s="6">
         <v>3.72199535648179</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
+      <c r="A113" s="4">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>NLRP3</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
+      <c r="B113" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" s="6">
         <v>-0.3634594560753454</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113" s="6">
         <v>0.5609587821520371</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113" s="6">
         <v>0.7306706560360751</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113" s="6">
         <v>0.8003129539314299</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113" s="6">
         <v>0.8259710579750932</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H113" s="6">
         <v>-0.2447959392711741</v>
       </c>
-      <c r="I113" t="n">
+      <c r="I113" s="6">
         <v>-0.1905360727744576</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J113" s="6">
         <v>0.6365615351642734</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
+      <c r="A114" s="4">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>PDE4D</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
+      <c r="B114" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" s="6">
         <v>-0.3756093734542892</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" s="6">
         <v>-0.5029825630163862</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114" s="6">
         <v>-0.6695922324994015</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114" s="6">
         <v>-0.5825062639374331</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114" s="6">
         <v>-0.498195748173447</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H114" s="6">
         <v>-0.4149647806647372</v>
       </c>
-      <c r="I114" t="n">
+      <c r="I114" s="6">
         <v>0.05065405057770136</v>
       </c>
-      <c r="J114" t="n">
+      <c r="J114" s="6">
         <v>-0.9841227811762254</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
+      <c r="A115" s="4">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>PRKAR1B</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
+      <c r="B115" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="6">
         <v>-1.073523243022939</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115" s="6">
         <v>2.421897261669832</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115" s="6">
         <v>-0.7952476820711044</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115" s="6">
         <v>-1.583773940601522</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I115" s="6">
         <v>2.0983439262326</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J115" s="6">
         <v>-2.598074669326321</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
+      <c r="A116" s="4">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>GBA</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
+      <c r="B116" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" s="6">
         <v>-0.3761186137459136</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" s="6">
         <v>-0.2403103225699868</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116" s="6">
         <v>0.4786752939063139</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116" s="6">
         <v>-0.2633941367369263</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116" s="6">
         <v>-0.1045245355346854</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H116" s="6">
         <v>-0.3977700196876872</v>
       </c>
-      <c r="I116" t="n">
+      <c r="I116" s="6">
         <v>0.02929241217498969</v>
       </c>
-      <c r="J116" t="n">
+      <c r="J116" s="6">
         <v>-0.6482370045016165</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
+      <c r="A117" s="4">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>ADRB2</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
+      <c r="B117" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" s="6">
         <v>0.1303275986393486</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117" s="6">
         <v>-0.005222152060145866</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117" s="6">
         <v>-0.09545846929654363</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117" s="6">
         <v>-0.1570234276700907</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117" s="6">
         <v>0.2056406623019075</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H117" s="6">
         <v>0.09494882072364007</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I117" s="6">
         <v>-0.04985882415823654</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J117" s="6">
         <v>0.1296729374372103</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
+      <c r="A118" s="4">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>MTHFR</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
+      <c r="B118" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C118" s="6">
         <v>0.2630440628630696</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" s="6">
         <v>-0.03377537115041012</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118" s="6">
         <v>-0.2986134931990934</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118" s="6">
         <v>-0.3697648458037619</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118" s="6">
         <v>0.169852370243837</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H118" s="6">
         <v>0.1008780486467607</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I118" s="6">
         <v>-0.158266388289143</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J118" s="6">
         <v>0.108803621150028</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+      <c r="A119" s="4">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>ADH1C</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
+      <c r="B119" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="6">
         <v>-1.160954473739783</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119" s="6">
         <v>-0.90161839113794</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119" s="6">
         <v>-1.78657426226389</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H119" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I119" t="n">
+      <c r="I119" s="6">
         <v>-1.744713849878016</v>
       </c>
-      <c r="J119" t="n">
+      <c r="J119" s="6">
         <v>-1.5402691680773</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+      <c r="A120" s="4">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>NOTCH1</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
+      <c r="B120" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" s="6">
         <v>1.292890384770062</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="6">
         <v>0.9491671738492774</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120" s="6">
         <v>-0.1788796143773008</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120" s="6">
         <v>1.970390753666622</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120" s="6">
         <v>1.171924547869756</v>
       </c>
-      <c r="H120" t="n">
+      <c r="H120" s="6">
         <v>1.40056480939481</v>
       </c>
-      <c r="I120" t="n">
+      <c r="I120" s="6">
         <v>-0.6210127457521049</v>
       </c>
-      <c r="J120" t="n">
+      <c r="J120" s="6">
         <v>3.139333143550235</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+      <c r="A121" s="4">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>NCSTN</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
+      <c r="B121" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121" s="6">
         <v>-0.2988828315632772</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="6">
         <v>0.3258626039583062</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121" s="6">
         <v>0.06112346612241751</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121" s="6">
         <v>0.2684594085972518</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121" s="6">
         <v>0.5873824442546413</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H121" s="6">
         <v>-0.3272122074025513</v>
       </c>
-      <c r="I121" t="n">
+      <c r="I121" s="6">
         <v>-0.5158290958891563</v>
       </c>
-      <c r="J121" t="n">
+      <c r="J121" s="6">
         <v>0.3240952564348286</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
+      <c r="A122" s="4">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>EPHB2</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
+      <c r="B122" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C122" s="6">
         <v>-0.3587668847288217</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="6">
         <v>0.1539836755946599</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122" s="6">
         <v>0.03703393759642347</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122" s="6">
         <v>-0.1570234276700907</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G122" s="6">
         <v>0.396511553278261</v>
       </c>
-      <c r="H122" t="n">
+      <c r="H122" s="6">
         <v>-0.3497432735104098</v>
       </c>
-      <c r="I122" t="n">
+      <c r="I122" s="6">
         <v>-0.04985882415823654</v>
       </c>
-      <c r="J122" t="n">
+      <c r="J122" s="6">
         <v>-0.1668355352147869</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
+      <c r="A123" s="4">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>CTSB</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
+      <c r="B123" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C123" s="6">
         <v>0.8195624167884514</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" s="6">
         <v>0.8358454769320196</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123" s="6">
         <v>-0.1881507855813466</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123" s="6">
         <v>1.438537208332443</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G123" s="6">
         <v>1.076489102381586</v>
       </c>
-      <c r="H123" t="n">
+      <c r="H123" s="6">
         <v>1.028209295822833</v>
       </c>
-      <c r="I123" t="n">
+      <c r="I123" s="6">
         <v>-0.5678228106910223</v>
       </c>
-      <c r="J123" t="n">
+      <c r="J123" s="6">
         <v>2.414434821032005</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
+      <c r="A124" s="4">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>AGER</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
+      <c r="B124" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" s="6">
         <v>-0.4508178332108994</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="6">
         <v>0.4404120173129044</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124" s="6">
         <v>0.9379823044686002</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F124" s="6">
         <v>0.1620886995304162</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G124" s="6">
         <v>0.7066767511148806</v>
       </c>
-      <c r="H124" t="n">
+      <c r="H124" s="6">
         <v>-0.3746460307875166</v>
       </c>
-      <c r="I124" t="n">
+      <c r="I124" s="6">
         <v>0.2408660011124694</v>
       </c>
-      <c r="J124" t="n">
+      <c r="J124" s="6">
         <v>0.02431604367306271</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
+      <c r="A125" s="4">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>TREM2</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
+      <c r="B125" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C125" s="6">
         <v>0.6438463448403225</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="6">
         <v>0.7810474508884699</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125" s="6">
         <v>-0.1597676492504401</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125" s="6">
         <v>1.013054372065101</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125" s="6">
         <v>1.028771379637488</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H125" s="6">
         <v>0.7204823666128702</v>
       </c>
-      <c r="I125" t="n">
+      <c r="I125" s="6">
         <v>-0.5943987722333328</v>
       </c>
-      <c r="J125" t="n">
+      <c r="J125" s="6">
         <v>1.960044526644689</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
+      <c r="A126" s="4">
         <v>124</v>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>FHL2</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
+      <c r="B126" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C126" s="6">
         <v>-0.5165652693817814</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" s="6">
         <v>-0.02430129081006253</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126" s="6">
         <v>-0.05129433366555453</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126" s="6">
         <v>-0.5825062639374331</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126" s="6">
         <v>0.1817818009298783</v>
       </c>
-      <c r="H126" t="n">
+      <c r="H126" s="6">
         <v>-0.5371068758810229</v>
       </c>
-      <c r="I126" t="n">
+      <c r="I126" s="6">
         <v>0.7926896817847625</v>
       </c>
-      <c r="J126" t="n">
+      <c r="J126" s="6">
         <v>-0.878202921976904</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
+      <c r="A127" s="4">
         <v>125</v>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>PPIF</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
+      <c r="B127" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" s="6">
         <v>0.1569442794763982</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="6">
         <v>0.09287341981442536</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127" s="6">
         <v>-0.332338833135485</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127" s="6">
         <v>0.2684594085972518</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127" s="6">
         <v>0.3249349691621201</v>
       </c>
-      <c r="H127" t="n">
+      <c r="H127" s="6">
         <v>0.3392330111562115</v>
       </c>
-      <c r="I127" t="n">
+      <c r="I127" s="6">
         <v>-0.3021245945812379</v>
       </c>
-      <c r="J127" t="n">
+      <c r="J127" s="6">
         <v>0.6176659401912995</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
+      <c r="A128" s="4">
         <v>126</v>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>ADAM10</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
+      <c r="B128" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" s="6">
         <v>-0.1912154939623349</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" s="6">
         <v>0.7274374579298736</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128" s="6">
         <v>0.1341950359845994</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128" s="6">
         <v>0.6939422448645942</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G128" s="6">
         <v>0.981053656893403</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H128" s="6">
         <v>0.08961251559283147</v>
       </c>
-      <c r="I128" t="n">
+      <c r="I128" s="6">
         <v>-0.3900645779789053</v>
       </c>
-      <c r="J128" t="n">
+      <c r="J128" s="6">
         <v>1.035761444191746</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
+      <c r="A129" s="4">
         <v>127</v>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>CHAT</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
+      <c r="B129" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129" s="6">
         <v>-0.3423631435677428</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" s="6">
         <v>0.1539836755946599</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129" s="6">
         <v>-0.006327213750365797</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F129" s="6">
         <v>0.1620886995304162</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G129" s="6">
         <v>0.396511553278261</v>
       </c>
-      <c r="H129" t="n">
+      <c r="H129" s="6">
         <v>-0.2495393216096706</v>
       </c>
-      <c r="I129" t="n">
+      <c r="I129" s="6">
         <v>-0.3529190898675196</v>
       </c>
-      <c r="J129" t="n">
+      <c r="J129" s="6">
         <v>0.1140172118921153</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
+      <c r="A130" s="4">
         <v>128</v>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>NPY</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
+      <c r="B130" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C130" s="6">
         <v>-0.1380629907202153</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="6">
         <v>0.2490108704020666</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130" s="6">
         <v>0.1735412659103897</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F130" s="6">
         <v>0.2684594085972518</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G130" s="6">
         <v>0.5038764294524858</v>
       </c>
-      <c r="H130" t="n">
+      <c r="H130" s="6">
         <v>0.04573622896173855</v>
       </c>
-      <c r="I130" t="n">
+      <c r="I130" s="6">
         <v>-0.3799916282478253</v>
       </c>
-      <c r="J130" t="n">
+      <c r="J130" s="6">
         <v>0.4636404668384931</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
+      <c r="A131" s="4">
         <v>129</v>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>CASP3</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
+      <c r="B131" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C131" s="6">
         <v>2.295502709168459</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" s="6">
         <v>1.441474281846569</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131" s="6">
         <v>-0.2494943569851154</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F131" s="6">
         <v>3.459580680602321</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G131" s="6">
         <v>1.541736899136462</v>
       </c>
-      <c r="H131" t="n">
+      <c r="H131" s="6">
         <v>3.119447984307492</v>
       </c>
-      <c r="I131" t="n">
+      <c r="I131" s="6">
         <v>-0.8159404883045587</v>
       </c>
-      <c r="J131" t="n">
+      <c r="J131" s="6">
         <v>5.461991466831146</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
+      <c r="A132" s="4">
         <v>130</v>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>HTR1A</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
+      <c r="B132" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C132" s="6">
         <v>-0.5068481681611605</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="6">
         <v>-0.510394489810972</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132" s="6">
         <v>0.5670035651682923</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F132" s="6">
         <v>-0.4761355548705975</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G132" s="6">
         <v>-0.5101251788594616</v>
       </c>
-      <c r="H132" t="n">
+      <c r="H132" s="6">
         <v>-0.5163545781501006</v>
       </c>
-      <c r="I132" t="n">
+      <c r="I132" s="6">
         <v>0.817324667529062</v>
       </c>
-      <c r="J132" t="n">
+      <c r="J132" s="6">
         <v>-1.32746589237369</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
+      <c r="A133" s="4">
         <v>131</v>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>PSEN2</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
+      <c r="B133" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C133" s="6">
         <v>4.415965536503771</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="6">
         <v>1.191951343505834</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133" s="6">
         <v>-0.6312151215373006</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F133" s="6">
         <v>2.183132171800293</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G133" s="6">
         <v>1.362795438846123</v>
       </c>
-      <c r="H133" t="n">
+      <c r="H133" s="6">
         <v>3.287245134531806</v>
       </c>
-      <c r="I133" t="n">
+      <c r="I133" s="6">
         <v>-1.020147838721552</v>
       </c>
-      <c r="J133" t="n">
+      <c r="J133" s="6">
         <v>5.802998117835654</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
+      <c r="A134" s="4">
         <v>132</v>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>GSK3B</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
+      <c r="B134" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C134" s="6">
         <v>1.453780714034637</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134" s="6">
         <v>1.129119369980345</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134" s="6">
         <v>-0.001830501758846677</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F134" s="6">
         <v>1.651278626466115</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G134" s="6">
         <v>1.315077716102025</v>
       </c>
-      <c r="H134" t="n">
+      <c r="H134" s="6">
         <v>1.984593759822196</v>
       </c>
-      <c r="I134" t="n">
+      <c r="I134" s="6">
         <v>-0.5740593273089359</v>
       </c>
-      <c r="J134" t="n">
+      <c r="J134" s="6">
         <v>3.431928677223812</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
+      <c r="A135" s="4">
         <v>133</v>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>NTRK1</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
+      <c r="B135" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C135" s="6">
         <v>0.06273884759605194</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" s="6">
         <v>0.5983632664398528</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135" s="6">
         <v>0.3020187513823577</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135" s="6">
         <v>0.481200826730923</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G135" s="6">
         <v>0.8617593500331636</v>
       </c>
-      <c r="H135" t="n">
+      <c r="H135" s="6">
         <v>0.03447069590780928</v>
       </c>
-      <c r="I135" t="n">
+      <c r="I135" s="6">
         <v>-0.2427101368428696</v>
       </c>
-      <c r="J135" t="n">
+      <c r="J135" s="6">
         <v>0.8792144057366835</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
+      <c r="A136" s="4">
         <v>134</v>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>CD2AP</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
+      <c r="B136" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" s="6">
         <v>0.07744520204554531</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" s="6">
         <v>0.3596245363154518</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136" s="6">
         <v>-0.2161737733545806</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F136" s="6">
         <v>0.05571799046358055</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G136" s="6">
         <v>0.6231707363126984</v>
       </c>
-      <c r="H136" t="n">
+      <c r="H136" s="6">
         <v>-0.05565356852362483</v>
       </c>
-      <c r="I136" t="n">
+      <c r="I136" s="6">
         <v>-0.5054669583061141</v>
       </c>
-      <c r="J136" t="n">
+      <c r="J136" s="6">
         <v>0.5627407436844635</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
+      <c r="A137" s="4">
         <v>135</v>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>CDK5</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
+      <c r="B137" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C137" s="6">
         <v>2.344648395657501</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137" s="6">
         <v>0.8637024121770003</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137" s="6">
         <v>-0.494855869785488</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F137" s="6">
         <v>1.544907917399279</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G137" s="6">
         <v>1.100347963753616</v>
       </c>
-      <c r="H137" t="n">
+      <c r="H137" s="6">
         <v>2.283426847147477</v>
       </c>
-      <c r="I137" t="n">
+      <c r="I137" s="6">
         <v>-0.8336441184724818</v>
       </c>
-      <c r="J137" t="n">
+      <c r="J137" s="6">
         <v>3.83235442077873</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
+      <c r="A138" s="4">
         <v>136</v>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>MME</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
+      <c r="B138" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C138" s="6">
         <v>0.4202892668043878</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138" s="6">
         <v>0.6363646307960895</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138" s="6">
         <v>-0.3502515594753268</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F138" s="6">
         <v>0.481200826730923</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G138" s="6">
         <v>0.8975476420912207</v>
       </c>
-      <c r="H138" t="n">
+      <c r="H138" s="6">
         <v>0.326188709725346</v>
       </c>
-      <c r="I138" t="n">
+      <c r="I138" s="6">
         <v>-0.5859814763511166</v>
       </c>
-      <c r="J138" t="n">
+      <c r="J138" s="6">
         <v>1.334663091841427</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
+      <c r="A139" s="4">
         <v>137</v>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>CUTA</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
+      <c r="B139" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C139" s="6">
         <v>-0.5244321933020951</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" s="6">
         <v>-0.6729551047506477</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F139" s="6">
         <v>-0.90161839113794</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G139" s="6">
         <v>-0.7845020846379841</v>
       </c>
-      <c r="H139" t="n">
+      <c r="H139" s="6">
         <v>-0.5501511773118883</v>
       </c>
-      <c r="I139" t="n">
+      <c r="I139" s="6">
         <v>-1.744713849878016</v>
       </c>
-      <c r="J139" t="n">
+      <c r="J139" s="6">
         <v>-0.9516922081698956</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
+      <c r="A140" s="4">
         <v>138</v>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>SST</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
+      <c r="B140" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C140" s="6">
         <v>0.5124738465677667</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" s="6">
         <v>0.2598282362597729</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140" s="6">
         <v>-0.06488329847508978</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F140" s="6">
         <v>0.481200826730923</v>
       </c>
-      <c r="G140" t="n">
+      <c r="G140" s="6">
         <v>0.515805860138527</v>
       </c>
-      <c r="H140" t="n">
+      <c r="H140" s="6">
         <v>0.6042694993197052</v>
       </c>
-      <c r="I140" t="n">
+      <c r="I140" s="6">
         <v>-0.4266583200895112</v>
       </c>
-      <c r="J140" t="n">
+      <c r="J140" s="6">
         <v>1.14894624677334</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
+      <c r="A141" s="4">
         <v>139</v>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>UCHL1</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
+      <c r="B141" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C141" s="6">
         <v>0.01328732934603783</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" s="6">
         <v>0.6236303097607107</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141" s="6">
         <v>-0.08662564217034564</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F141" s="6">
         <v>0.5875715357977587</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G141" s="6">
         <v>0.8856182114052196</v>
       </c>
-      <c r="H141" t="n">
+      <c r="H141" s="6">
         <v>0.1222232691699951</v>
       </c>
-      <c r="I141" t="n">
+      <c r="I141" s="6">
         <v>-0.6851053272466934</v>
       </c>
-      <c r="J141" t="n">
+      <c r="J141" s="6">
         <v>1.104298159956905</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
+      <c r="A142" s="4">
         <v>140</v>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>CP</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
+      <c r="B142" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C142" s="6">
         <v>0.484097253312577</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="6">
         <v>0.2706987587064604</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E142" s="6">
         <v>-0.1464170873323</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F142" s="6">
         <v>0.481200826730923</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G142" s="6">
         <v>0.527735290824515</v>
       </c>
-      <c r="H142" t="n">
+      <c r="H142" s="6">
         <v>0.5461630656731227</v>
       </c>
-      <c r="I142" t="n">
+      <c r="I142" s="6">
         <v>-0.4811234246262261</v>
       </c>
-      <c r="J142" t="n">
+      <c r="J142" s="6">
         <v>1.137789605138646</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
+      <c r="A143" s="4">
         <v>141</v>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>ACHE</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
+      <c r="B143" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C143" s="6">
         <v>0.9342167678435488</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="6">
         <v>0.9491671738492774</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E143" s="6">
         <v>-0.05129433366555453</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F143" s="6">
         <v>1.013054372065101</v>
       </c>
-      <c r="G143" t="n">
+      <c r="G143" s="6">
         <v>1.171924547869756</v>
       </c>
-      <c r="H143" t="n">
+      <c r="H143" s="6">
         <v>0.9689170165916262</v>
       </c>
-      <c r="I143" t="n">
+      <c r="I143" s="6">
         <v>-0.6110444295058262</v>
       </c>
-      <c r="J143" t="n">
+      <c r="J143" s="6">
         <v>2.321076700087066</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
+      <c r="A144" s="4">
         <v>142</v>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>HSPA9</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
+      <c r="B144" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C144" s="6">
         <v>0.3555969858799346</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" s="6">
         <v>0.3370604518473349</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144" s="6">
         <v>-0.0988557104989274</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F144" s="6">
         <v>0.3748301176640874</v>
       </c>
-      <c r="G144" t="n">
+      <c r="G144" s="6">
         <v>0.5993118749406425</v>
       </c>
-      <c r="H144" t="n">
+      <c r="H144" s="6">
         <v>0.4346935807184542</v>
       </c>
-      <c r="I144" t="n">
+      <c r="I144" s="6">
         <v>-0.5076091309795312</v>
       </c>
-      <c r="J144" t="n">
+      <c r="J144" s="6">
         <v>1.036115653267392</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
+      <c r="A145" s="4">
         <v>143</v>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>SIGMAR1</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
+      <c r="B145" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C145" s="6">
         <v>-0.424459555226915</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" s="6">
         <v>-0.5757756412773317</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145" s="6">
         <v>-0.1749539134323239</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F145" s="6">
         <v>-0.4761355548705975</v>
       </c>
-      <c r="G145" t="n">
+      <c r="G145" s="6">
         <v>-0.6174900550336597</v>
       </c>
-      <c r="H145" t="n">
+      <c r="H145" s="6">
         <v>-0.4701066003497594</v>
       </c>
-      <c r="I145" t="n">
+      <c r="I145" s="6">
         <v>0.2387998410177864</v>
       </c>
-      <c r="J145" t="n">
+      <c r="J145" s="6">
         <v>-1.139864871015629</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
+      <c r="A146" s="4">
         <v>144</v>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>CRAT</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
+      <c r="B146" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C146" s="6">
         <v>-0.4857896815795115</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" s="6">
         <v>-0.7130107754365904</v>
       </c>
-      <c r="E146" t="n">
+      <c r="E146" s="6">
         <v>1.185301464002139</v>
       </c>
-      <c r="F146" t="n">
+      <c r="F146" s="6">
         <v>-0.6888769730042688</v>
       </c>
-      <c r="G146" t="n">
+      <c r="G146" s="6">
         <v>-0.8560786687541383</v>
       </c>
-      <c r="H146" t="n">
+      <c r="H146" s="6">
         <v>-0.5033102767192351</v>
       </c>
-      <c r="I146" t="n">
+      <c r="I146" s="6">
         <v>0.7461569309344208</v>
       </c>
-      <c r="J146" t="n">
+      <c r="J146" s="6">
         <v>-1.654730357438474</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
+      <c r="A147" s="4">
         <v>145</v>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>OGDH</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
+      <c r="B147" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C147" s="6">
         <v>-0.4831749422528417</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147" s="6">
         <v>-0.8401365074478379</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147" s="6">
         <v>-0.05129433366555453</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F147" s="6">
         <v>-0.6888769730042688</v>
       </c>
-      <c r="G147" t="n">
+      <c r="G147" s="6">
         <v>-1.094667282474577</v>
       </c>
-      <c r="H147" t="n">
+      <c r="H147" s="6">
         <v>-0.4973810487961144</v>
       </c>
-      <c r="I147" t="n">
+      <c r="I147" s="6">
         <v>0.8397986896115796</v>
       </c>
-      <c r="J147" t="n">
+      <c r="J147" s="6">
         <v>-1.728061278994</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
+      <c r="A148" s="4">
         <v>146</v>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>ACOT8</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
+      <c r="B148" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C148" s="6">
         <v>-0.4857896815795115</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148" s="6">
         <v>-0.7130107754365904</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148" s="6">
         <v>1.185301464002139</v>
       </c>
-      <c r="F148" t="n">
+      <c r="F148" s="6">
         <v>-0.6888769730042688</v>
       </c>
-      <c r="G148" t="n">
+      <c r="G148" s="6">
         <v>-0.8560786687541383</v>
       </c>
-      <c r="H148" t="n">
+      <c r="H148" s="6">
         <v>-0.5033102767192351</v>
       </c>
-      <c r="I148" t="n">
+      <c r="I148" s="6">
         <v>0.7461569309344208</v>
       </c>
-      <c r="J148" t="n">
+      <c r="J148" s="6">
         <v>-1.654730357438474</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
+      <c r="A149" s="4">
         <v>147</v>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>ACAT1</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
+      <c r="B149" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C149" s="6">
         <v>-0.404176609424135</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149" s="6">
         <v>-0.8824462624381262</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E149" s="6">
         <v>-0.5459326527326318</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F149" s="6">
         <v>-0.4761355548705975</v>
       </c>
-      <c r="G149" t="n">
+      <c r="G149" s="6">
         <v>-1.178173297276746</v>
       </c>
-      <c r="H149" t="n">
+      <c r="H149" s="6">
         <v>-0.4612127584650784</v>
       </c>
-      <c r="I149" t="n">
+      <c r="I149" s="6">
         <v>0.00825987255840591</v>
       </c>
-      <c r="J149" t="n">
+      <c r="J149" s="6">
         <v>-1.384340785962433</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
+      <c r="A150" s="4">
         <v>148</v>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>UBQLN1</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
+      <c r="B150" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" s="6">
         <v>0.04858902760146544</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150" s="6">
         <v>0.1957079082046753</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E150" s="6">
         <v>0.1285741459952008</v>
       </c>
-      <c r="F150" t="n">
+      <c r="F150" s="6">
         <v>0.1620886995304162</v>
       </c>
-      <c r="G150" t="n">
+      <c r="G150" s="6">
         <v>0.4442292760223728</v>
       </c>
-      <c r="H150" t="n">
+      <c r="H150" s="6">
         <v>0.05700176201566781</v>
       </c>
-      <c r="I150" t="n">
+      <c r="I150" s="6">
         <v>-0.5359269774535032</v>
       </c>
-      <c r="J150" t="n">
+      <c r="J150" s="6">
         <v>0.500364264388522</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
+      <c r="A151" s="4">
         <v>149</v>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>HSD11B1</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
+      <c r="B151" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C151" s="6">
         <v>-0.249091054558014</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151" s="6">
         <v>-0.07124202900430202</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E151" s="6">
         <v>-0.6695922324994015</v>
       </c>
-      <c r="F151" t="n">
+      <c r="F151" s="6">
         <v>-0.5825062639374331</v>
       </c>
-      <c r="G151" t="n">
+      <c r="G151" s="6">
         <v>0.1221346474997387</v>
       </c>
-      <c r="H151" t="n">
+      <c r="H151" s="6">
         <v>-0.3094245236331893</v>
       </c>
-      <c r="I151" t="n">
+      <c r="I151" s="6">
         <v>0.06849355674280166</v>
       </c>
-      <c r="J151" t="n">
+      <c r="J151" s="6">
         <v>-0.4709468551989303</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
+      <c r="A152" s="4">
         <v>150</v>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>APBB2</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
+      <c r="B152" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C152" s="6">
         <v>-0.4982825971410282</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152" s="6">
         <v>-1.160954473739783</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E152" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F152" t="n">
+      <c r="F152" s="6">
         <v>-0.7952476820711044</v>
       </c>
-      <c r="G152" t="n">
+      <c r="G152" s="6">
         <v>-1.78657426226389</v>
       </c>
-      <c r="H152" t="n">
+      <c r="H152" s="6">
         <v>-0.5400714898425832</v>
       </c>
-      <c r="I152" t="n">
+      <c r="I152" s="6">
         <v>1.457834296880831</v>
       </c>
-      <c r="J152" t="n">
+      <c r="J152" s="6">
         <v>-2.267546788641294</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
+      <c r="A153" s="4">
         <v>151</v>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>BCHE</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
+      <c r="B153" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C153" s="6">
         <v>0.1391909260037898</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153" s="6">
         <v>0.5486208365079276</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E153" s="6">
         <v>-0.5665425826937602</v>
       </c>
-      <c r="F153" t="n">
+      <c r="F153" s="6">
         <v>-0.05065271860325506</v>
       </c>
-      <c r="G153" t="n">
+      <c r="G153" s="6">
         <v>0.8140416272890786</v>
       </c>
-      <c r="H153" t="n">
+      <c r="H153" s="6">
         <v>0.1797367800242656</v>
       </c>
-      <c r="I153" t="n">
+      <c r="I153" s="6">
         <v>-0.4582201498979663</v>
       </c>
-      <c r="J153" t="n">
+      <c r="J153" s="6">
         <v>0.810762433743155</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
+      <c r="A154" s="4">
         <v>152</v>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>ABCA2</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
+      <c r="B154" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C154" s="6">
         <v>-0.2851665881976119</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154" s="6">
         <v>-0.625032290900571</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154" s="6">
         <v>-1.287890131333248</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F154" s="6">
         <v>-0.5825062639374331</v>
       </c>
-      <c r="G154" t="n">
+      <c r="G154" s="6">
         <v>-0.7009960698358285</v>
       </c>
-      <c r="H154" t="n">
+      <c r="H154" s="6">
         <v>-0.3681238800720839</v>
       </c>
-      <c r="I154" t="n">
+      <c r="I154" s="6">
         <v>0.01668763083935027</v>
       </c>
-      <c r="J154" t="n">
+      <c r="J154" s="6">
         <v>-0.9963917803515284</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
+      <c r="A155" s="4">
         <v>153</v>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>TNF</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
+      <c r="B155" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C155" s="6">
         <v>8.038770820354566</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155" s="6">
         <v>1.872701103491841</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155" s="6">
         <v>-0.6209392830829675</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F155" s="6">
         <v>5.480624152872197</v>
       </c>
-      <c r="G155" t="n">
+      <c r="G155" s="6">
         <v>1.816113804914985</v>
       </c>
-      <c r="H155" t="n">
+      <c r="H155" s="6">
         <v>7.691475635825837</v>
       </c>
-      <c r="I155" t="n">
+      <c r="I155" s="6">
         <v>-1.017311609844407</v>
       </c>
-      <c r="J155" t="n">
+      <c r="J155" s="6">
         <v>11.42802782491979</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
+      <c r="A156" s="4">
         <v>154</v>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>VLDLR</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
+      <c r="B156" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C156" s="6">
         <v>-0.3342958978720423</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156" s="6">
         <v>-0.1080351289641899</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156" s="6">
         <v>-0.6254280968684125</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F156" s="6">
         <v>-0.1570234276700907</v>
       </c>
-      <c r="G156" t="n">
+      <c r="G156" s="6">
         <v>0.0744169247556536</v>
       </c>
-      <c r="H156" t="n">
+      <c r="H156" s="6">
         <v>-0.4019204792338717</v>
       </c>
-      <c r="I156" t="n">
+      <c r="I156" s="6">
         <v>-0.4609337738065815</v>
       </c>
-      <c r="J156" t="n">
+      <c r="J156" s="6">
         <v>-0.2580268799955959</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
+      <c r="A157" s="4">
         <v>155</v>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>IL10</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
+      <c r="B157" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C157" s="6">
         <v>0.4970134706404254</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157" s="6">
         <v>0.9203579255484813</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E157" s="6">
         <v>-0.07522844587847768</v>
       </c>
-      <c r="F157" t="n">
+      <c r="F157" s="6">
         <v>2.289502880867129</v>
       </c>
-      <c r="G157" t="n">
+      <c r="G157" s="6">
         <v>1.148065686497727</v>
       </c>
-      <c r="H157" t="n">
+      <c r="H157" s="6">
         <v>0.9505364100299522</v>
       </c>
-      <c r="I157" t="n">
+      <c r="I157" s="6">
         <v>-0.6549515344522251</v>
       </c>
-      <c r="J157" t="n">
+      <c r="J157" s="6">
         <v>2.705910794399309</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
+      <c r="A158" s="4">
         <v>156</v>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>RHOA</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
+      <c r="B158" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C158" s="6">
         <v>2.804114872473278</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" s="6">
         <v>1.067744369754001</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158" s="6">
         <v>-0.4821083534981703</v>
       </c>
-      <c r="F158" t="n">
+      <c r="F158" s="6">
         <v>2.289502880867129</v>
       </c>
-      <c r="G158" t="n">
+      <c r="G158" s="6">
         <v>1.26735999335794</v>
       </c>
-      <c r="H158" t="n">
+      <c r="H158" s="6">
         <v>2.347462508717181</v>
       </c>
-      <c r="I158" t="n">
-        <v>-0.8423140136531631</v>
-      </c>
-      <c r="J158" t="n">
+      <c r="I158" s="6">
+        <v>-0.842314013653163</v>
+      </c>
+      <c r="J158" s="6">
         <v>4.559681659146738</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
+      <c r="A159" s="4">
         <v>157</v>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>DHCR24</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
+      <c r="B159" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C159" s="6">
         <v>-0.5114562553411913</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" s="6">
         <v>-0.6525765874658747</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159" s="6">
         <v>-0.05129433366555453</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F159" s="6">
         <v>-0.6888769730042688</v>
       </c>
-      <c r="G159" t="n">
+      <c r="G159" s="6">
         <v>-0.7487137925799402</v>
       </c>
-      <c r="H159" t="n">
+      <c r="H159" s="6">
         <v>-0.538292721465647</v>
       </c>
-      <c r="I159" t="n">
+      <c r="I159" s="6">
         <v>0.7319233836154921</v>
       </c>
-      <c r="J159" t="n">
+      <c r="J159" s="6">
         <v>-1.52256653016784</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
+      <c r="A160" s="4">
         <v>158</v>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>SOAT1</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
+      <c r="B160" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C160" s="6">
         <v>-0.1233806401639151</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" s="6">
         <v>-0.1884491233148506</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E160" s="6">
         <v>-0.3604432830824778</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F160" s="6">
         <v>-0.05065271860325506</v>
       </c>
-      <c r="G160" t="n">
+      <c r="G160" s="6">
         <v>-0.03294795141854444</v>
       </c>
-      <c r="H160" t="n">
+      <c r="H160" s="6">
         <v>-0.1226538440548884</v>
       </c>
-      <c r="I160" t="n">
+      <c r="I160" s="6">
         <v>-0.5542717104767476</v>
       </c>
-      <c r="J160" t="n">
+      <c r="J160" s="6">
         <v>-0.05502193511850045</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
+      <c r="A161" s="4">
         <v>159</v>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>CFH</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
+      <c r="B161" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C161" s="6">
         <v>-0.4998363067651761</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" s="6">
         <v>0.1334195895225807</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161" s="6">
         <v>0.9792021643908569</v>
       </c>
-      <c r="F161" t="n">
+      <c r="F161" s="6">
         <v>-0.05065271860325506</v>
       </c>
-      <c r="G161" t="n">
+      <c r="G161" s="6">
         <v>0.3726526919062318</v>
       </c>
-      <c r="H161" t="n">
+      <c r="H161" s="6">
         <v>-0.5133899641885402</v>
       </c>
-      <c r="I161" t="n">
+      <c r="I161" s="6">
         <v>0.3811941791670309</v>
       </c>
-      <c r="J161" t="n">
+      <c r="J161" s="6">
         <v>-0.4484168317848106</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
+      <c r="A162" s="4">
         <v>160</v>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>CAV1</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
+      <c r="B162" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C162" s="6">
         <v>0.9300016841738531</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" s="6">
         <v>0.9783047326720185</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E162" s="6">
         <v>0.08311825303745561</v>
       </c>
-      <c r="F162" t="n">
+      <c r="F162" s="6">
         <v>1.544907917399279</v>
       </c>
-      <c r="G162" t="n">
+      <c r="G162" s="6">
         <v>1.195783409241799</v>
       </c>
-      <c r="H162" t="n">
+      <c r="H162" s="6">
         <v>0.9789967040609313</v>
       </c>
-      <c r="I162" t="n">
+      <c r="I162" s="6">
         <v>-0.5896964854731858</v>
       </c>
-      <c r="J162" t="n">
+      <c r="J162" s="6">
         <v>2.577718260645437</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
+      <c r="A163" s="4">
         <v>161</v>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>SNCA</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
+      <c r="B163" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C163" s="6">
         <v>3.742700822370964</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" s="6">
         <v>1.441474281846569</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E163" s="6">
         <v>-0.50160517890443</v>
       </c>
-      <c r="F163" t="n">
+      <c r="F163" s="6">
         <v>3.034097844334978</v>
       </c>
-      <c r="G163" t="n">
+      <c r="G163" s="6">
         <v>1.541736899136462</v>
       </c>
-      <c r="H163" t="n">
+      <c r="H163" s="6">
         <v>4.04025708076813</v>
       </c>
-      <c r="I163" t="n">
+      <c r="I163" s="6">
         <v>-0.9205286650503718</v>
       </c>
-      <c r="J163" t="n">
+      <c r="J163" s="6">
         <v>6.378462535433521</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
+      <c r="A164" s="4">
         <v>162</v>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>CLU</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
+      <c r="B164" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C164" s="6">
         <v>1.620432658942229</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164" s="6">
         <v>1.022639035535933</v>
       </c>
-      <c r="E164" t="n">
+      <c r="E164" s="6">
         <v>-0.4007670590933808</v>
       </c>
-      <c r="F164" t="n">
+      <c r="F164" s="6">
         <v>1.544907917399279</v>
       </c>
-      <c r="G164" t="n">
+      <c r="G164" s="6">
         <v>1.231571701299869</v>
       </c>
-      <c r="H164" t="n">
+      <c r="H164" s="6">
         <v>1.539901665588146</v>
       </c>
-      <c r="I164" t="n">
+      <c r="I164" s="6">
         <v>-0.8181099194157896</v>
       </c>
-      <c r="J164" t="n">
+      <c r="J164" s="6">
         <v>3.267596072012729</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
+      <c r="A165" s="4">
         <v>163</v>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>NOS3</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
+      <c r="B165" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C165" s="6">
         <v>0.7908787395965148</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165" s="6">
         <v>0.7142160745313023</v>
       </c>
-      <c r="E165" t="n">
+      <c r="E165" s="6">
         <v>0.235075219478543</v>
       </c>
-      <c r="F165" t="n">
+      <c r="F165" s="6">
         <v>1.119425081131937</v>
       </c>
-      <c r="G165" t="n">
+      <c r="G165" s="6">
         <v>0.9691242262073884</v>
       </c>
-      <c r="H165" t="n">
+      <c r="H165" s="6">
         <v>0.7388629731745443</v>
       </c>
-      <c r="I165" t="n">
+      <c r="I165" s="6">
         <v>-0.4187990564068296</v>
       </c>
-      <c r="J165" t="n">
+      <c r="J165" s="6">
         <v>1.962539078065639</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
+      <c r="A166" s="4">
         <v>164</v>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>IDE</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
+      <c r="B166" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C166" s="6">
         <v>1.533614858082412</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166" s="6">
         <v>0.7010659654367645</v>
       </c>
-      <c r="E166" t="n">
+      <c r="E166" s="6">
         <v>-0.4092562750956766</v>
       </c>
-      <c r="F166" t="n">
+      <c r="F166" s="6">
         <v>1.119425081131937</v>
       </c>
-      <c r="G166" t="n">
+      <c r="G166" s="6">
         <v>0.9571947955213471</v>
       </c>
-      <c r="H166" t="n">
+      <c r="H166" s="6">
         <v>1.425467566671917</v>
       </c>
-      <c r="I166" t="n">
+      <c r="I166" s="6">
         <v>-0.8397736396012043</v>
       </c>
-      <c r="J166" t="n">
+      <c r="J166" s="6">
         <v>2.752430774883865</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
+      <c r="A167" s="4">
         <v>165</v>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>IL1B</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
+      <c r="B167" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C167" s="6">
         <v>2.126699965243599</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167" s="6">
         <v>1.406869660356517</v>
       </c>
-      <c r="E167" t="n">
+      <c r="E167" s="6">
         <v>-0.3349532005724143</v>
       </c>
-      <c r="F167" t="n">
+      <c r="F167" s="6">
         <v>3.672322098735992</v>
       </c>
-      <c r="G167" t="n">
+      <c r="G167" s="6">
         <v>1.517878037764433</v>
       </c>
-      <c r="H167" t="n">
+      <c r="H167" s="6">
         <v>3.223802395754415</v>
       </c>
-      <c r="I167" t="n">
+      <c r="I167" s="6">
         <v>-0.845733471415869</v>
       </c>
-      <c r="J167" t="n">
+      <c r="J167" s="6">
         <v>5.525218937035</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
+      <c r="A168" s="4">
         <v>166</v>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>SIRT1</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
+      <c r="B168" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C168" s="6">
         <v>0.3754052559473204</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168" s="6">
         <v>1.022639035535933</v>
       </c>
-      <c r="E168" t="n">
+      <c r="E168" s="6">
         <v>0.09667439426049429</v>
       </c>
-      <c r="F168" t="n">
+      <c r="F168" s="6">
         <v>1.864020044599786</v>
       </c>
-      <c r="G168" t="n">
+      <c r="G168" s="6">
         <v>1.231571701299869</v>
       </c>
-      <c r="H168" t="n">
+      <c r="H168" s="6">
         <v>0.9191115020374125</v>
       </c>
-      <c r="I168" t="n">
+      <c r="I168" s="6">
         <v>-0.5799741170859398</v>
       </c>
-      <c r="J168" t="n">
+      <c r="J168" s="6">
         <v>2.479138706573881</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
+      <c r="A169" s="4">
         <v>167</v>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>ABCA1</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
+      <c r="B169" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C169" s="6">
         <v>0.2274722314934905</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="6">
         <v>0.6879865558534886</v>
       </c>
-      <c r="E169" t="n">
+      <c r="E169" s="6">
         <v>0.01665049038212111</v>
       </c>
-      <c r="F169" t="n">
+      <c r="F169" s="6">
         <v>0.481200826730923</v>
       </c>
-      <c r="G169" t="n">
+      <c r="G169" s="6">
         <v>0.9452653648353059</v>
       </c>
-      <c r="H169" t="n">
+      <c r="H169" s="6">
         <v>0.2876487282250617</v>
       </c>
-      <c r="I169" t="n">
+      <c r="I169" s="6">
         <v>-0.3317058812069193</v>
       </c>
-      <c r="J169" t="n">
+      <c r="J169" s="6">
         <v>1.179607533094722</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>